--- a/REGULAR/RE-ENCODE/BAYBAY, MA. ROSA.xlsx
+++ b/REGULAR/RE-ENCODE/BAYBAY, MA. ROSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFCAB7-1C09-4331-B333-63F44B1E3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472A85C-D217-490E-A3EB-2B3509F9DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -386,6 +378,9 @@
   </si>
   <si>
     <t>12/8,15,23,29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1410,9 +1405,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A92" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A99" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1572,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>123.009</v>
+        <v>129.25900000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1587,7 +1582,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>156.27000000000001</v>
+        <v>162.52000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3553,7 +3548,9 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3569,15 +3566,19 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>44927</v>
+      </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -3585,15 +3586,19 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>44958</v>
+      </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
@@ -3601,15 +3606,19 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>44986</v>
+      </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -3617,15 +3626,19 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45017</v>
+      </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
@@ -3633,23 +3646,33 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="A106" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="49">
+        <v>45082</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45078</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3665,7 +3688,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45108</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3681,7 +3706,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45139</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3697,7 +3724,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45170</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3713,7 +3742,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45200</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3729,7 +3760,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45231</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3745,7 +3778,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45261</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3761,7 +3796,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45292</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3777,7 +3814,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45323</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3793,7 +3832,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45352</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3809,7 +3850,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45383</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3825,7 +3868,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45413</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3841,7 +3886,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45444</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3857,7 +3904,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45474</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3873,7 +3922,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45505</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3889,7 +3940,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45536</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3905,7 +3958,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45566</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3921,7 +3976,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>45597</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
